--- a/Ressources/Résumé des tests (OC et AJVR) (ACT-2000).xlsx
+++ b/Ressources/Résumé des tests (OC et AJVR) (ACT-2000).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alec/Dropbox/Documents/Archives/École/Archive Université Laval/2000 Stats/Notes/Examen 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alec/OneDrive - Université Laval/distributacalcul/Ressources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B6B298-3E69-6B46-AFB6-95B5DB17C7DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DDDB39-B8F7-0D46-95B4-EE0DC28C3C4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,10 @@
     <sheet name="2 échantillons" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'1 échantillon'!$A:$A</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'2 échantillons'!$A:$A</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1 échantillon'!$A$1:$I$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2 échantillons'!$A$2:$D$12</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'1 échantillon'!$A:$A</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'2 échantillons'!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -10716,8 +10716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
